--- a/TestData/TestCase.xlsx
+++ b/TestData/TestCase.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codegen\OutResult\Cloud\CPP.SDK\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codegen\OutResult\Cloud\NET.SDK\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22939B6-34BF-457E-B2CA-938441E0C819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D9AD0C-6B08-4085-83D6-136989B7FC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_Sheet1C5E131" hidden="1">Sheet1!$C$5:$E$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -120,12 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,39 +146,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roy Wang" refreshedDate="41655.427479861108" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="8" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C5:E13" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
-        <n v="1"/>
-        <n v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9" count="5">
-        <n v="2"/>
-        <n v="6"/>
-        <n v="4"/>
-        <n v="9"/>
-        <n v="8"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Roy Wang" refreshedDate="42264.442985995367" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF27000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -276,53 +245,90 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Cells" refreshedDate="44954.874811574075" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C5:E13" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9" count="5">
+        <n v="2"/>
+        <n v="6"/>
+        <n v="4"/>
+        <n v="9"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7" count="3">
+        <n v="3"/>
+        <n v="7"/>
+        <n v="0"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="7"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="7"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -397,6 +403,96 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2E2DBAA-4DE7-4C0F-8B0C-C5F3597E2F3D}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Count" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="captionGreaterThan" evalOrder="-1" id="1" stringValue1="3">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="3"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -757,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -966,11 +1062,131 @@
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="4" previousRow="4" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+      <selection activeCell="A5" sqref="A3:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07B6ADE-1516-46BE-B85B-A2DBCED674DE}">
+  <dimension ref="A3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" start="4" max="6" activeRow="8" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
           <references count="1">
-            <reference field="1" count="0"/>
+            <reference field="1" count="1">
+              <x v="4"/>
+            </reference>
           </references>
         </pivotArea>
       </pivotSelection>
@@ -978,11 +1194,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,71 +1224,64 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-      <c r="C10">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>29</v>
+      <c r="D9" s="3">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
